--- a/image/medication.xlsx
+++ b/image/medication.xlsx
@@ -828,44 +828,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="53.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="194.9609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="95.24609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="193.3984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="95.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/image/medication.xlsx
+++ b/image/medication.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="211">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -525,10 +525,6 @@
   </si>
   <si>
     <t>Medication.ingredient.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -828,44 +824,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.4453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.4296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="53.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="193.3984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="95.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="194.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="95.24609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2783,13 +2779,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2840,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2858,7 +2854,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -2869,7 +2865,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2898,7 +2894,7 @@
         <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>97</v>
@@ -2951,7 +2947,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2969,7 +2965,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -2980,11 +2976,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3006,10 +3002,10 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>97</v>
@@ -3064,7 +3060,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3093,7 +3089,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3116,17 +3112,17 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3175,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>49</v>
@@ -3193,18 +3189,18 @@
         <v>119</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3227,17 +3223,17 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3286,7 +3282,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3304,7 +3300,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3315,7 +3311,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3338,13 +3334,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3374,11 +3370,11 @@
         <v>116</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3395,7 +3391,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3410,7 +3406,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>152</v>
@@ -3419,12 +3415,12 @@
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3450,10 +3446,10 @@
         <v>154</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3504,7 +3500,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3522,7 +3518,7 @@
         <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3533,7 +3529,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3556,13 +3552,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3613,7 +3609,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3631,7 +3627,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3642,7 +3638,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3671,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>97</v>
@@ -3724,7 +3720,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3742,7 +3738,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3753,11 +3749,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3779,10 +3775,10 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>97</v>
@@ -3837,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3866,7 +3862,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3889,13 +3885,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3946,7 +3942,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3970,12 +3966,12 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3998,13 +3994,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4055,7 +4051,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4073,13 +4069,13 @@
         <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
